--- a/Text_Mining_Renewables/Topic.xlsx
+++ b/Text_Mining_Renewables/Topic.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\Text_Mining_Renewables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F46DE78-8EAF-46BE-8EB9-623F4EC1418F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C5BBC7-532B-4F0D-8C14-2F544D42E24E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="470" xr2:uid="{CCCACD7B-E998-407D-894D-B421386BB845}"/>
+    <workbookView xWindow="29475" yWindow="720" windowWidth="18300" windowHeight="15450" tabRatio="470" xr2:uid="{CCCACD7B-E998-407D-894D-B421386BB845}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
   <si>
     <t xml:space="preserve">Gensim LDA </t>
   </si>
@@ -1079,12 +1079,21 @@
   <si>
     <t>Rank of
  Topic</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Averaged Rank Score</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1224,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1253,6 +1262,54 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1262,62 +1319,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1633,19 +1645,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FD56F9-ECAC-4B29-BA92-747BD8276117}">
-  <dimension ref="B1:H17"/>
+  <dimension ref="B1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="30" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="24" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="2" customWidth="1"/>
     <col min="7" max="7" width="23" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
@@ -1657,219 +1669,219 @@
       <c r="B2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="31" t="s">
+      <c r="E2" s="25" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="8">
         <v>1</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
+      <c r="B4" s="29"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="14"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="8">
         <v>4</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="10" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="9">
         <v>5</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="28" t="s">
+      <c r="E7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="13" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="26" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="E8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="14" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="8">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="8">
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="8">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="9">
         <v>5</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="24" t="s">
+      <c r="F12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="29" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="8">
@@ -1878,92 +1890,145 @@
       <c r="D13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="23" t="s">
+      <c r="F13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="8">
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="10" t="s">
         <v>16</v>
       </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="8">
         <v>3</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="8">
         <v>4</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="15"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="9">
         <v>5</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="13" t="s">
         <v>24</v>
       </c>
       <c r="H17" s="3"/>
+    </row>
+    <row r="19" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="32">
+        <f>AVERAGE(C4,C8,C13)</f>
+        <v>1.3333333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="32">
+        <f>AVERAGE(C3,C9,C16)</f>
+        <v>2.3333333333333335</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="32">
+        <f>AVERAGE(C5,C12,C15)</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="32">
+        <f>AVERAGE(C7,C11,C14)</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="32">
+        <f>AVERAGE(C6,C10,C17)</f>
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Text_Mining_Renewables/Topic.xlsx
+++ b/Text_Mining_Renewables/Topic.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\Text_Mining_Renewables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C5BBC7-532B-4F0D-8C14-2F544D42E24E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE2976A-44DC-42B0-B552-1AA2ADA07232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29475" yWindow="720" windowWidth="18300" windowHeight="15450" tabRatio="470" xr2:uid="{CCCACD7B-E998-407D-894D-B421386BB845}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="470" xr2:uid="{CCCACD7B-E998-407D-894D-B421386BB845}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Source of Research Articles" sheetId="3" r:id="rId1"/>
+    <sheet name="Analysis" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
   <si>
     <t xml:space="preserve">Gensim LDA </t>
   </si>
@@ -1085,15 +1086,154 @@
   </si>
   <si>
     <t>Averaged Rank Score</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Replot</t>
+  </si>
+  <si>
+    <t>Total Document Count</t>
+  </si>
+  <si>
+    <t>A 140 MW Solar Thermal Plant in Jordan</t>
+  </si>
+  <si>
+    <t>Processes</t>
+  </si>
+  <si>
+    <t>Energy Policy</t>
+  </si>
+  <si>
+    <t>A fuzzylevelisedenergycostmethodforrenewableenergy
+technologyassessment</t>
+  </si>
+  <si>
+    <t>A qualitativefactoranalysisofrenewableenergyandSustainableEnergy forAll(SE4ALL)intheAsia-Pacific</t>
+  </si>
+  <si>
+    <t>An empirical analysis of the non-linear impacts of ICT-trade openness
+on renewable energy transition, energy efficiency, clean cooking fuel
+access and environmental sustainability in South Asia</t>
+  </si>
+  <si>
+    <t>Environmental Science and Pollution Research</t>
+  </si>
+  <si>
+    <t>Assessing Turkey’s Climate Change
+Commitments: The Case of Turkey’s Energy
+Policy</t>
+  </si>
+  <si>
+    <t>PERCEPTIONS,</t>
+  </si>
+  <si>
+    <t>What areretailinvestors'risk-returnpreferencestowardsrenewable
+energy projects?AchoiceexperimentinGermany</t>
+  </si>
+  <si>
+    <t>Understanding the absence of
+renewable electricity imports to
+the European Union</t>
+  </si>
+  <si>
+    <t>International Journal of Energy
+Sector Management</t>
+  </si>
+  <si>
+    <t>Understanding Stakeholders’ Influence on Project Success with a New SNA Method: A Case Study of the Green Retrofit in China</t>
+  </si>
+  <si>
+    <t>Sustainability</t>
+  </si>
+  <si>
+    <t>Two ways to success expansion of renewable energies in comparison
+between Germany's federal states</t>
+  </si>
+  <si>
+    <t>Two Steps Forward, One Step Back:
+How Politics Dim the Lights on Turkey’s
+Renewable Energy Future</t>
+  </si>
+  <si>
+    <t>Transformingshortcomingsintoopportunities:Canmarketincentivessolve
+Lebanon’s energycrisis?</t>
+  </si>
+  <si>
+    <t>Toward Technology-Sensitive Catching-Up Policies: Insights from Renewable Energy
+in China</t>
+  </si>
+  <si>
+    <t>World Development</t>
+  </si>
+  <si>
+    <t>J. energy South. Afr.</t>
+  </si>
+  <si>
+    <t>The success of multi-sector participation in the management of revenue for beneficiary communities of South African renewable energy companies - sub-model A</t>
+  </si>
+  <si>
+    <t>The outlook for renewable energy in Navarre: An economic profile</t>
+  </si>
+  <si>
+    <t>The keys to renewable energy success in the
+Middle East</t>
+  </si>
+  <si>
+    <t>International Financial Law Review</t>
+  </si>
+  <si>
+    <t>The International Renewable Energy Agency: a success
+story in institutional innovation?</t>
+  </si>
+  <si>
+    <t>Int Environ Agreements</t>
+  </si>
+  <si>
+    <t>The institutional space of community initiatives
+for renewable energy: a comparative case study
+of the Netherlands, Germany and Denmark</t>
+  </si>
+  <si>
+    <t>Energy, Sustainability and Society</t>
+  </si>
+  <si>
+    <t>The impactofbehaviouralfactorsintherenewableenergyinvestment
+decision makingprocess:Conceptualframeworkandempiricalfindings</t>
+  </si>
+  <si>
+    <t>The application of renewable energy to social housing: A systematic review</t>
+  </si>
+  <si>
+    <t>Technological Forecasting &amp; Social Change</t>
+  </si>
+  <si>
+    <t>Technology roadmaps: An evaluation of their success in the
+renewable energy sector</t>
+  </si>
+  <si>
+    <t>Sustainability, TQM and Value Co-Creation Processes:
+The Role of Critical Success Factors</t>
+  </si>
+  <si>
+    <t>International Journal of Production Economics</t>
+  </si>
+  <si>
+    <t>Sustainability assessment of integrated forest biorefinery implemented in
+Canadian pulp and paper mills</t>
+  </si>
+  <si>
+    <t>Successful transformational change in revenue management among beneficiary communities of South African renewable energy construction companies</t>
+  </si>
+  <si>
+    <t>Acta Structilia</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1125,7 +1265,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1229,11 +1369,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1328,8 +1483,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1346,6 +1510,271 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2984499</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>264584</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>412749</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>148166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Chart, bar chart&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{186322E8-4FB1-4527-8655-4480A60F1401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5418666" y="8667751"/>
+          <a:ext cx="5767917" cy="5408082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3703084</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>255072</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>264583</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177E2E95-0D3D-4D34-886A-84F0B89950BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6137251" y="9990667"/>
+          <a:ext cx="2743238" cy="10583"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3686201</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>162983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>206349</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>173566</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE1A904-FE65-4D58-9B9E-F3B52374B476}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6120368" y="11804650"/>
+          <a:ext cx="4859814" cy="10583"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3737438</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>537633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>311758</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>548216</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB18D930-9E24-439E-AD2B-02273ED8B2F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6171605" y="9702800"/>
+          <a:ext cx="1548486" cy="10583"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3744386</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1204386</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE515CE6-A494-46BD-98B8-51B48DBDEF25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6178553" y="10697633"/>
+          <a:ext cx="3651250" cy="10583"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1644,16 +2073,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FD56F9-ECAC-4B29-BA92-747BD8276117}">
-  <dimension ref="B1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E9D61D-EA24-4C69-945F-4AD4F8F5A3BD}">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="1" max="1" width="92.140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FD56F9-ECAC-4B29-BA92-747BD8276117}">
+  <dimension ref="B1:R25"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.28515625" style="2" bestFit="1" customWidth="1"/>
@@ -1664,8 +2297,15 @@
     <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="2:18" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>45</v>
       </c>
@@ -1686,7 +2326,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
@@ -1707,7 +2347,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="29"/>
       <c r="C4" s="8">
         <v>2</v>
@@ -1726,7 +2366,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="29"/>
       <c r="C5" s="8">
         <v>3</v>
@@ -1745,7 +2385,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="29"/>
       <c r="C6" s="8">
         <v>4</v>
@@ -1764,7 +2404,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="30"/>
       <c r="C7" s="9">
         <v>5</v>
@@ -1783,7 +2423,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="26" t="s">
         <v>4</v>
       </c>
@@ -1804,7 +2444,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="27"/>
       <c r="C9" s="8">
         <v>2</v>
@@ -1823,7 +2463,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B10" s="27"/>
       <c r="C10" s="8">
         <v>3</v>
@@ -1842,7 +2482,7 @@
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
       <c r="C11" s="8">
         <v>4</v>
@@ -1861,7 +2501,7 @@
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="28"/>
       <c r="C12" s="9">
         <v>5</v>
@@ -1880,7 +2520,7 @@
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="29" t="s">
         <v>5</v>
       </c>
@@ -1901,7 +2541,7 @@
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="29"/>
       <c r="C14" s="8">
         <v>2</v>
@@ -1920,7 +2560,7 @@
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:18" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="29"/>
       <c r="C15" s="8">
         <v>3</v>
@@ -1939,7 +2579,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="29"/>
       <c r="C16" s="8">
         <v>4</v>
@@ -1958,7 +2598,7 @@
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="2:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="30"/>
       <c r="C17" s="9">
         <v>5</v>
@@ -1977,57 +2617,85 @@
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="19" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B19" s="2" t="s">
+    <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B19" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="32" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B20" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="33">
         <f>AVERAGE(C4,C8,C13)</f>
         <v>1.3333333333333333</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="2" t="s">
+      <c r="D20" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="33">
         <f>AVERAGE(C3,C9,C16)</f>
         <v>2.3333333333333335</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="D21" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="33">
         <f>AVERAGE(C5,C12,C15)</f>
         <v>3.6666666666666665</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
+      <c r="D22" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C23" s="33">
         <f>AVERAGE(C7,C11,C14)</f>
         <v>3.6666666666666665</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+      <c r="D23" s="2">
+        <v>10</v>
+      </c>
+      <c r="K23" s="3">
+        <f>5/2*0.8</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="B24" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C24" s="33">
         <f>AVERAGE(C6,C10,C17)</f>
         <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="2">
+        <f>SUM(D20:D24)</f>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2038,5 +2706,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" copies="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Text_Mining_Renewables/Topic.xlsx
+++ b/Text_Mining_Renewables/Topic.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\Text_Mining_Renewables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE2976A-44DC-42B0-B552-1AA2ADA07232}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25499FB6-90DE-4D4E-99F7-E2A03727EC4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="470" xr2:uid="{CCCACD7B-E998-407D-894D-B421386BB845}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="470" xr2:uid="{CCCACD7B-E998-407D-894D-B421386BB845}"/>
   </bookViews>
   <sheets>
     <sheet name="Source of Research Articles" sheetId="3" r:id="rId1"/>
     <sheet name="Analysis" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Source of Research Articles'!$B$1:$B$89</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="180">
   <si>
     <t xml:space="preserve">Gensim LDA </t>
   </si>
@@ -1228,6 +1231,358 @@
   </si>
   <si>
     <t>Acta Structilia</t>
+  </si>
+  <si>
+    <t>Attitudes and Approaches of Finnish Retrofit Industry
+Stakeholders toward Achieving Nearly Zero-Energy Buildings</t>
+  </si>
+  <si>
+    <t>Bioenergy Villages and Regions in Germany: An Interview
+Study with Initiators of Communal Bioenergy Projects on the
+Success Factors for Restructuring the Energy Supply of
+the Community</t>
+  </si>
+  <si>
+    <t>Building Energy Commons: Three Mini-PV Installation Cases
+in Apartment Complexes in Seoul</t>
+  </si>
+  <si>
+    <t>Energies</t>
+  </si>
+  <si>
+    <t>Change-actorsintheU.S.electricenergysystem:Therole
+of environmentalgroupsinutilityadoptionanddiffusionof
+wind power</t>
+  </si>
+  <si>
+    <t>Success of renewable energy projects under the financial and non-financial performance measures</t>
+  </si>
+  <si>
+    <t>Sustainable Development</t>
+  </si>
+  <si>
+    <t>Success and failure in the political economy of solar electrification: Lessons
+from World Bank Solar Home System (SHS) projects in Sri Lanka and
+Indonesia</t>
+  </si>
+  <si>
+    <t>Status and perspectives of renewable energy policy and deployment in the European Union—What is needed to reach the 2020 targets?</t>
+  </si>
+  <si>
+    <t>Stakeholders’ satisfaction as a key determinant of critical success factors in renewable energy projects</t>
+  </si>
+  <si>
+    <t>Solar energy at high temperatures; researches at the Weizmann
+Institute of Science, Israel; 25 years of success</t>
+  </si>
+  <si>
+    <t>Renewable Energy and Enviromental Sustainability</t>
+  </si>
+  <si>
+    <t>Solar CommunityOrganizationsandactivepeereffectsintheadoption
+of residentialPV</t>
+  </si>
+  <si>
+    <t>The di!usion of renewable energy technology: an analytical
+framework and key issues for research</t>
+  </si>
+  <si>
+    <t>Wind energy development in Tamil Nadu and Andhra Pradesh, India
+Institutional dynamics and barriers * A case study</t>
+  </si>
+  <si>
+    <t>Renewable energy, trade performance and the conditional role of finance
+and institutional capacity in sub-Sahara African countries</t>
+  </si>
+  <si>
+    <t>Renewable Energy Technology and Path Creation:
+A Multi-scalar Approach to Energy Transition in the
+UK</t>
+  </si>
+  <si>
+    <t>European Planning Studies</t>
+  </si>
+  <si>
+    <t>RenewableenergytechnologyacceptanceinPeninsularMalaysi</t>
+  </si>
+  <si>
+    <t>Renewable energy policy scenarios as
+implementation moderation of fuel subsidy
+policy in Indonesia</t>
+  </si>
+  <si>
+    <t>FORESIGHT</t>
+  </si>
+  <si>
+    <t>Renewable energypolicyandlandscapemanagementin
+Andalusia, Spain:Thefacts</t>
+  </si>
+  <si>
+    <t>Renewableenergypartnershipsindevelopmentcooperation:
+Towardsarelationalunderstandingoftechnicalassistance</t>
+  </si>
+  <si>
+    <t>Renewable energy in Turkey: Great potential, low but increasing utilization,
+and an empirical analysis on renewable energy-growth nexus</t>
+  </si>
+  <si>
+    <t>Renewable energies in the EU-Accession States</t>
+  </si>
+  <si>
+    <t>Renewable energies and the poor: niche or nexus?</t>
+  </si>
+  <si>
+    <t>Renewable electricity in Sweden: an analysis of policy and regulations</t>
+  </si>
+  <si>
+    <t>Regulatory Stringency and Policy Drivers:
+A Reassessment of Renewable Portfolio Standards</t>
+  </si>
+  <si>
+    <t>Policy Study Journal</t>
+  </si>
+  <si>
+    <t>Public willingness to pay and policy preferences for tidal energy research and development: A
+study of households in Washington state</t>
+  </si>
+  <si>
+    <t>Ecological Economics</t>
+  </si>
+  <si>
+    <t>Pre- and Post-Adoption Beliefs about the Di_x000B_usion
+and Continuation of Biogas-Based Cooking Fuel
+Technology in Pakistan</t>
+  </si>
+  <si>
+    <t>Policy differences in the promotion of renewable energies in the EU
+member states</t>
+  </si>
+  <si>
+    <t>Performance Beyond Economic
+Growth: Alternatives from
+Growth-Averse Enterprises
+in the Global South</t>
+  </si>
+  <si>
+    <t>Alternatives: Global, Local, Political</t>
+  </si>
+  <si>
+    <t>ON THE SUCCESS OF POLICY STRATEGIES FOR THE
+PROMOTION OF ELECTRICITY FROM RENEWABLE
+ENERGY SOURCES IN THE EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Energy &amp; Environment</t>
+  </si>
+  <si>
+    <t>On evaluating success in complex policy mixes: the case
+of renewable energy support schemes</t>
+  </si>
+  <si>
+    <t>Policy Sci</t>
+  </si>
+  <si>
+    <t>Non-technical success factors for bioenergy projects—Learning from a multiple case study in Japan</t>
+  </si>
+  <si>
+    <t>Micro-Hydropower in Nepal: Analysing the Project Process to
+Understand Drivers that Strengthen andWeaken Sustainability</t>
+  </si>
+  <si>
+    <t>Local power: exploring the motivations of mayors
+and key success factors for local municipalities to
+go 100% renewable energy</t>
+  </si>
+  <si>
+    <t>Lessons for effective renewable electricity policy from Denmark,
+Germany and the United Kingdom</t>
+  </si>
+  <si>
+    <t>Knowing where to go: The knowledge foundation for investments in
+renewable energy</t>
+  </si>
+  <si>
+    <t>Energy Research &amp; Social Science</t>
+  </si>
+  <si>
+    <t>Journal of STI Policy and Management</t>
+  </si>
+  <si>
+    <t>Key Success Factors of Renewable Energy Projects
+Implementation in Rural Areas of Indonesia</t>
+  </si>
+  <si>
+    <t>It Is All about Political Incentives: Democracy
+and the Renewable Feed-in Tariff</t>
+  </si>
+  <si>
+    <t>The Journal of Politics</t>
+  </si>
+  <si>
+    <t>Is it really all about the return on investment? Exploring private wind energy investors' preferences</t>
+  </si>
+  <si>
+    <t>Investment decisions in the renewable energy sector:
+An analysis of non-financial drivers</t>
+  </si>
+  <si>
+    <t>Innovative renewable energy technology projects' success through partnership</t>
+  </si>
+  <si>
+    <t>Industry type and environmental policy:
+Industry characteristics shape the potential
+for policymaking success in energy and
+the environment</t>
+  </si>
+  <si>
+    <t>Business and Politics</t>
+  </si>
+  <si>
+    <t>Improving Management of Green Retrofits from a Stakeholder
+Perspective: A Case Study in China</t>
+  </si>
+  <si>
+    <t>International Journal of
+Environmental Research and
+Public Health</t>
+  </si>
+  <si>
+    <t>Implementing Traceability Systems in Specific
+Supply Chain Management (SCM) through Critical
+Success Factors (CSFs)</t>
+  </si>
+  <si>
+    <t>Identifying the Drivers ofWind Capacity Additions:
+The Case of Spain. A Multiequational Approach</t>
+  </si>
+  <si>
+    <t>IDENTIFYING THE CRITICAL SUCCESS FACTORS AND THEIR RELEVANT
+ASPECTS FOR RENEWABLE ENERGY PROJECTS; AN EMPIRICAL
+PERSPECTIVE</t>
+  </si>
+  <si>
+    <t>Journal of Civil Engineering and Management</t>
+  </si>
+  <si>
+    <t>Hybrid PSO-TS Based Distribution System
+Expansion Planning for System Performance
+Improvement Considering Energy Management</t>
+  </si>
+  <si>
+    <t>IEEE</t>
+  </si>
+  <si>
+    <t>Hybrid Predictive Decision-Making Approach to
+Emission Reduction Policies for Sustainable
+Energy Industry</t>
+  </si>
+  <si>
+    <t>How robust is the renewable energy industry
+to political shocks? Evidence from the 2016
+U.S. elections</t>
+  </si>
+  <si>
+    <t>Growing China’s renewables sector: a
+developmental state approach</t>
+  </si>
+  <si>
+    <t>New Political Economy</t>
+  </si>
+  <si>
+    <t>Green innovation and green Imports:Links between environmental policies,
+innovation, and production</t>
+  </si>
+  <si>
+    <t>Journal of Environmental Management</t>
+  </si>
+  <si>
+    <t>Subsea cable key challenges of an intercontinental power link: case
+study of Australia–Singapore interconnector</t>
+  </si>
+  <si>
+    <t>Energy Transitions</t>
+  </si>
+  <si>
+    <t>Global renewable energy development: Influencing factors, trend
+predictions and countermeasures</t>
+  </si>
+  <si>
+    <t>Resources Policy</t>
+  </si>
+  <si>
+    <t>Exploring local projects for sustainable energy in
+system transition: local perceptions of success</t>
+  </si>
+  <si>
+    <t>Technology Analysis &amp; Strategic Management</t>
+  </si>
+  <si>
+    <t>Examining the Key Drivers of Residential Solar
+Adoption in Upstate New York</t>
+  </si>
+  <si>
+    <t>Establishing anagendaforsocialstudiesresearchinmarine
+renewableenergy</t>
+  </si>
+  <si>
+    <t>Energy transitions, sub-national government and regime flexibility:
+How has devolution in the United Kingdom affected renewable
+energy development?</t>
+  </si>
+  <si>
+    <t>Energy transition in Germany and regional spill-overs: The diffusion of
+renewable energy in firm</t>
+  </si>
+  <si>
+    <t>Drivers, Barriers, and Success Factors for Improving
+Energy Management in the Pulp and Paper Industry</t>
+  </si>
+  <si>
+    <t>Diverse interpretations
+enabling the continuity of
+community renewable energy
+projects: A case study of a
+woody biomass project in
+rural area of Japan</t>
+  </si>
+  <si>
+    <t>Local Economy</t>
+  </si>
+  <si>
+    <t>Devising renewableheatpolicy:Overviewofsupportoptions</t>
+  </si>
+  <si>
+    <t>Determinants of renewable and non-renewable energy demand in China</t>
+  </si>
+  <si>
+    <t>Structural Change and Economic Dynamics</t>
+  </si>
+  <si>
+    <t>International Journal of Cuban Studies</t>
+  </si>
+  <si>
+    <t>CUBA ENERGY REVOLUTION AND 2030 POLICY GOALS- MORE PENETRATION OF RENEWABLE ENERGY IN ELECTRICITY GENERATION</t>
+  </si>
+  <si>
+    <t>Critical Success Factors for integrating renewable energy development in a
+country with 2 systems: The case of Pearl River Delta and Hong Kong SAR
+in China</t>
+  </si>
+  <si>
+    <t>Creating Synergies from Renewable Energy Investments, a
+Community Success Story from Lolland, Denmark</t>
+  </si>
+  <si>
+    <t>energies</t>
+  </si>
+  <si>
+    <t>Consumer Stock Ownership Plans (CSOPs)—The Prototype Business Model for Renewable Energy Communities</t>
+  </si>
+  <si>
+    <t>Combining feed-in tariffs and net-metering schemes to balance
+development in adoption of photovoltaic energy: Comparative economic
+assessment and policy implications for European countries</t>
   </si>
 </sst>
 </file>
@@ -1465,6 +1820,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1481,18 +1848,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2074,204 +2429,733 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E9D61D-EA24-4C69-945F-4AD4F8F5A3BD}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="92.140625" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" style="34" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="34"/>
+    <col min="1" max="1" width="92.140625" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="29" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="29" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="29" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="29" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="29" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="29" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="34" t="s">
+      <c r="B13" s="29" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="29" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="29" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="29" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="34" t="s">
+      <c r="B19" s="29" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="29" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="29" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="29" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="29" t="s">
         <v>88</v>
       </c>
     </row>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B58" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B60" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B66" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A82" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" s="29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="B85" s="29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="B86" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A88" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B88" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="B1:B89" xr:uid="{FEEFA1A4-47EC-41A8-8647-A1D0ACAE36A2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2327,7 +3211,7 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="35" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="8">
@@ -2348,7 +3232,7 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="8">
         <v>2</v>
       </c>
@@ -2367,7 +3251,7 @@
       <c r="H4" s="3"/>
     </row>
     <row r="5" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B5" s="29"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="8">
         <v>3</v>
       </c>
@@ -2386,7 +3270,7 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="29"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="8">
         <v>4</v>
       </c>
@@ -2405,7 +3289,7 @@
       <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:18" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="30"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="9">
         <v>5</v>
       </c>
@@ -2424,7 +3308,7 @@
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="30" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="7">
@@ -2445,7 +3329,7 @@
       <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="27"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="8">
         <v>2</v>
       </c>
@@ -2464,7 +3348,7 @@
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="27"/>
+      <c r="B10" s="31"/>
       <c r="C10" s="8">
         <v>3</v>
       </c>
@@ -2483,7 +3367,7 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
+      <c r="B11" s="31"/>
       <c r="C11" s="8">
         <v>4</v>
       </c>
@@ -2502,7 +3386,7 @@
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:18" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="9">
         <v>5</v>
       </c>
@@ -2521,7 +3405,7 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="8">
@@ -2542,7 +3426,7 @@
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="8">
         <v>2</v>
       </c>
@@ -2561,7 +3445,7 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:18" ht="45" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="8">
         <v>3</v>
       </c>
@@ -2579,8 +3463,8 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:18" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="29"/>
+    <row r="16" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="33"/>
       <c r="C16" s="8">
         <v>4</v>
       </c>
@@ -2599,7 +3483,7 @@
       <c r="H16" s="3"/>
     </row>
     <row r="17" spans="2:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="30"/>
+      <c r="B17" s="34"/>
       <c r="C17" s="9">
         <v>5</v>
       </c>
@@ -2618,10 +3502,10 @@
       <c r="H17" s="3"/>
     </row>
     <row r="19" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="32" t="s">
+      <c r="C19" s="26" t="s">
         <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2629,10 +3513,10 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="27">
         <f>AVERAGE(C4,C8,C13)</f>
         <v>1.3333333333333333</v>
       </c>
@@ -2641,10 +3525,10 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C21" s="27">
         <f>AVERAGE(C3,C9,C16)</f>
         <v>2.3333333333333335</v>
       </c>
@@ -2653,10 +3537,10 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="27">
         <f>AVERAGE(C5,C12,C15)</f>
         <v>3.6666666666666665</v>
       </c>
@@ -2665,10 +3549,10 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="27">
         <f>AVERAGE(C7,C11,C14)</f>
         <v>3.6666666666666665</v>
       </c>
@@ -2681,10 +3565,10 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C24" s="27">
         <f>AVERAGE(C6,C10,C17)</f>
         <v>4</v>
       </c>

--- a/Text_Mining_Renewables/Topic.xlsx
+++ b/Text_Mining_Renewables/Topic.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\Text_Mining_Renewables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quant\Documents\GitHub\Text_Mining_Renewables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25499FB6-90DE-4D4E-99F7-E2A03727EC4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="470" xr2:uid="{CCCACD7B-E998-407D-894D-B421386BB845}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="470"/>
   </bookViews>
   <sheets>
     <sheet name="Source of Research Articles" sheetId="3" r:id="rId1"/>
     <sheet name="Analysis" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Source of Research Articles'!$B$1:$B$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Source of Research Articles'!$B$2:$B$90</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="182">
   <si>
     <t xml:space="preserve">Gensim LDA </t>
   </si>
@@ -1584,11 +1583,17 @@
 development in adoption of photovoltaic energy: Comparative economic
 assessment and policy implications for European countries</t>
   </si>
+  <si>
+    <t>Journal Name</t>
+  </si>
+  <si>
+    <t>Title of Paper</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1887,7 +1892,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Chart, bar chart&#10;&#10;Description automatically generated">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{186322E8-4FB1-4527-8655-4480A60F1401}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{186322E8-4FB1-4527-8655-4480A60F1401}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1935,7 +1940,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{177E2E95-0D3D-4D34-886A-84F0B89950BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{177E2E95-0D3D-4D34-886A-84F0B89950BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1988,7 +1993,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DE1A904-FE65-4D58-9B9E-F3B52374B476}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DE1A904-FE65-4D58-9B9E-F3B52374B476}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2046,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB18D930-9E24-439E-AD2B-02273ED8B2F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB18D930-9E24-439E-AD2B-02273ED8B2F9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2099,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE515CE6-A494-46BD-98B8-51B48DBDEF25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE515CE6-A494-46BD-98B8-51B48DBDEF25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2428,11 +2433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E9D61D-EA24-4C69-945F-4AD4F8F5A3BD}">
-  <dimension ref="A1:B89"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,239 +2449,239 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B2" s="29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>56</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B6" s="29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B7" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B8" s="29" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B10" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+    <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B11" s="29" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B14" s="29" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B15" s="29" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B17" s="29" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
+    <row r="18" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B18" s="29" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
         <v>80</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>81</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
         <v>89</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>90</v>
       </c>
       <c r="B25" s="29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B27" s="29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
+    <row r="28" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B28" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B29" s="29" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
         <v>96</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>97</v>
       </c>
       <c r="B30" s="29" t="s">
         <v>54</v>
@@ -2684,31 +2689,31 @@
     </row>
     <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="29" t="s">
-        <v>79</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="29" t="s">
         <v>54</v>
@@ -2716,7 +2721,7 @@
     </row>
     <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="29" t="s">
         <v>54</v>
@@ -2724,47 +2729,47 @@
     </row>
     <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B38" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="29" t="s">
+      <c r="B39" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
+    <row r="40" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="29" t="s">
+      <c r="B40" s="29" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B41" s="29" t="s">
         <v>54</v>
@@ -2772,15 +2777,15 @@
     </row>
     <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B42" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B43" s="29" t="s">
         <v>54</v>
@@ -2788,7 +2793,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B44" s="29" t="s">
         <v>54</v>
@@ -2796,178 +2801,178 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B45" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="29" t="s">
+      <c r="B48" s="29" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
+    <row r="49" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B49" s="29" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="29" t="s">
+    <row r="50" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B50" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
+    <row r="51" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="B50" s="29" t="s">
+      <c r="B51" s="29" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="29" t="s">
+    <row r="52" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="29" t="s">
+      <c r="B52" s="29" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="29" t="s">
+    <row r="53" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B53" s="29" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="29" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="29" t="s">
+      <c r="B54" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="29" t="s">
+    <row r="55" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="29" t="s">
+      <c r="B55" s="29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="29" t="s">
+    <row r="56" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A56" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="B56" s="29" t="s">
         <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="B56" s="29" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="29" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B58" s="29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="B59" s="29" t="s">
+      <c r="B60" s="29" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="29" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B61" s="29" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="B61" s="29" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="29" t="s">
+      <c r="B63" s="29" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A63" s="29" t="s">
+    <row r="64" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="B63" s="29" t="s">
+      <c r="B64" s="29" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A64" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" s="29" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B65" s="29" t="s">
+      <c r="B66" s="29" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="29" t="s">
-        <v>146</v>
-      </c>
-      <c r="B66" s="29" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2978,190 +2983,198 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B68" s="29" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B69" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B70" s="29" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="B71" s="29" t="s">
+      <c r="B72" s="29" t="s">
         <v>142</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="B72" s="29" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="29" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B75" s="29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="29" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B77" s="29" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="B78" s="29" t="s">
+      <c r="B79" s="29" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="29" t="s">
+    <row r="80" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="29" t="s">
         <v>165</v>
       </c>
-      <c r="B79" s="29" t="s">
+      <c r="B80" s="29" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="29" t="s">
-        <v>166</v>
-      </c>
-      <c r="B80" s="29" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="B81" s="29" t="s">
+      <c r="B82" s="29" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A82" s="29" t="s">
+    <row r="83" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A83" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="B82" s="29" t="s">
+      <c r="B83" s="29" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="B83" s="29" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="B84" s="29" t="s">
+      <c r="B85" s="29" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="29" t="s">
+    <row r="86" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="B85" s="29" t="s">
+      <c r="B86" s="29" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A86" s="29" t="s">
+    <row r="87" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="B86" s="29" t="s">
+      <c r="B87" s="29" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B87" s="29" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B88" s="29" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="B89" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="B89" s="29" t="s">
+      <c r="B90" s="29" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B89" xr:uid="{FEEFA1A4-47EC-41A8-8647-A1D0ACAE36A2}"/>
+  <autoFilter ref="B2:B90"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FD56F9-ECAC-4B29-BA92-747BD8276117}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3463,7 +3476,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="2:18" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
       <c r="C16" s="8">
         <v>4</v>
